--- a/日志/日志.xlsx
+++ b/日志/日志.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -103,6 +103,99 @@
   </si>
   <si>
     <t>2016\06\20160630.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160701.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160702.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160703.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160704.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160705.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160706.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160707.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160708.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160709.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160710.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160711.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160712.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160713.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160714.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160715.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160716.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160717.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160718.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160719.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160720.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160721.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160722.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160723.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160724.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160725.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160726.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160727.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160728.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160729.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160730.txt</t>
+  </si>
+  <si>
+    <t>2016\07\20160731.txt</t>
   </si>
 </sst>
 </file>
@@ -173,10 +266,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -596,9 +689,9 @@
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G28" sqref="G28"/>
+      <selection pane="topRight" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -609,21 +702,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
       <c r="N1" s="3"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -672,176 +765,269 @@
         <v>1</v>
       </c>
       <c r="B4"/>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
+      <c r="H8" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
+      <c r="H9" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
+      <c r="H10" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
+      <c r="H11" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
+      <c r="H12" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
+      <c r="H13" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
+      <c r="H14" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
+      <c r="H15" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H23" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H25" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H27" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H28" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H30" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H31" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H32" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H33" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>31</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -857,12 +1043,44 @@
     <hyperlink ref="G31" r:id="rId5"/>
     <hyperlink ref="G32" r:id="rId6"/>
     <hyperlink ref="G33" r:id="rId7"/>
+    <hyperlink ref="H4" r:id="rId8"/>
+    <hyperlink ref="H5:H34" r:id="rId9" display="2016\07\20160701.txt"/>
+    <hyperlink ref="H5" r:id="rId10"/>
+    <hyperlink ref="H6" r:id="rId11"/>
+    <hyperlink ref="H7" r:id="rId12"/>
+    <hyperlink ref="H8" r:id="rId13"/>
+    <hyperlink ref="H9" r:id="rId14"/>
+    <hyperlink ref="H10" r:id="rId15"/>
+    <hyperlink ref="H11" r:id="rId16"/>
+    <hyperlink ref="H12" r:id="rId17"/>
+    <hyperlink ref="H13" r:id="rId18"/>
+    <hyperlink ref="H14" r:id="rId19"/>
+    <hyperlink ref="H15" r:id="rId20"/>
+    <hyperlink ref="H16" r:id="rId21"/>
+    <hyperlink ref="H17" r:id="rId22"/>
+    <hyperlink ref="H18" r:id="rId23"/>
+    <hyperlink ref="H19" r:id="rId24"/>
+    <hyperlink ref="H20" r:id="rId25"/>
+    <hyperlink ref="H21" r:id="rId26"/>
+    <hyperlink ref="H22" r:id="rId27"/>
+    <hyperlink ref="H23" r:id="rId28"/>
+    <hyperlink ref="H24" r:id="rId29"/>
+    <hyperlink ref="H25" r:id="rId30"/>
+    <hyperlink ref="H26" r:id="rId31"/>
+    <hyperlink ref="H27" r:id="rId32"/>
+    <hyperlink ref="H28" r:id="rId33"/>
+    <hyperlink ref="H29" r:id="rId34"/>
+    <hyperlink ref="H30" r:id="rId35"/>
+    <hyperlink ref="H31" r:id="rId36"/>
+    <hyperlink ref="H32" r:id="rId37"/>
+    <hyperlink ref="H33" r:id="rId38"/>
+    <hyperlink ref="H34" r:id="rId39"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="58" orientation="landscape" r:id="rId8"/>
+  <pageSetup scale="58" orientation="landscape" r:id="rId40"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId41"/>
   </tableParts>
 </worksheet>
 </file>
